--- a/MAYOR2.xlsx
+++ b/MAYOR2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Código</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Capital inicial</t>
   </si>
   <si>
+    <t>Resultados acumulados de ejercicios anteriores</t>
+  </si>
+  <si>
     <t>Resultado del ejercicio</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Caja</t>
+  </si>
+  <si>
+    <t>Impuesto sobre la renta a pagar</t>
   </si>
   <si>
     <t>Becas</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,28 +799,28 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>31502</v>
+        <v>31501</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>80750</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-25000</v>
+        <v>80750</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-25000</v>
+        <v>80750</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -831,13 +837,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>44101</v>
+        <v>31502</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="D11">
         <v>110000</v>
@@ -846,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -858,36 +864,36 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>1110101</v>
+        <v>44101</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12">
-        <v>134002</v>
+        <v>110000</v>
       </c>
       <c r="D12">
-        <v>25000</v>
+        <v>110000</v>
       </c>
       <c r="E12">
-        <v>109002</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>109002</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -907,39 +913,115 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>541010102</v>
+        <v>1110101</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13">
+        <v>134002</v>
+      </c>
+      <c r="D13">
+        <v>25000</v>
+      </c>
+      <c r="E13">
+        <v>109002</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>109002</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>211020205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4250</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4250</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4250</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>541010102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
         <v>1000</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>1000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
     </row>

--- a/MAYOR2.xlsx
+++ b/MAYOR2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Código</t>
   </si>
@@ -52,10 +52,16 @@
     <t>Haber ER2</t>
   </si>
   <si>
+    <t>Bienes para la venta</t>
+  </si>
+  <si>
     <t>Capital inicial</t>
   </si>
   <si>
     <t>Caja</t>
+  </si>
+  <si>
+    <t>Deudas por adquisición de inventarios c/p</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,28 +465,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>31101</v>
+        <v>11402</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>248976</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>248976</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -497,29 +503,29 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>1110101</v>
+        <v>31101</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1000000</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1000000</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1000000</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -530,6 +536,82 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>1110101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1167326</v>
+      </c>
+      <c r="D4">
+        <v>167326</v>
+      </c>
+      <c r="E4">
+        <v>1000000</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1000000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2110101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>81650</v>
+      </c>
+      <c r="D5">
+        <v>81650</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
     </row>

--- a/MAYOR2.xlsx
+++ b/MAYOR2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Código</t>
   </si>
@@ -52,6 +52,15 @@
     <t>Haber ER2</t>
   </si>
   <si>
+    <t>Ventas de bienes y servicios</t>
+  </si>
+  <si>
+    <t>Costo de ventas de bienes y servicios</t>
+  </si>
+  <si>
+    <t>Ventas a cobrar a corto plazo</t>
+  </si>
+  <si>
     <t>Bienes para la venta</t>
   </si>
   <si>
@@ -59,9 +68,6 @@
   </si>
   <si>
     <t>Caja</t>
-  </si>
-  <si>
-    <t>Deudas por adquisición de inventarios c/p</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,22 +471,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>11402</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>248976</v>
+        <v>1002</v>
       </c>
       <c r="D2">
-        <v>248976</v>
+        <v>1022</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -492,48 +498,48 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>31101</v>
+        <v>531</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>1000000</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -541,25 +547,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>1110101</v>
+        <v>11303</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1167326</v>
+        <v>1010</v>
       </c>
       <c r="D4">
-        <v>167326</v>
+        <v>1000</v>
       </c>
       <c r="E4">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -579,16 +585,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>2110101</v>
+        <v>11402</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>81650</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>81650</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -612,6 +618,82 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>31101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1000000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1000000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1000000</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>1110101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1000012</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1000000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1000000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
